--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H2">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I2">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J2">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>3.7668040048575</v>
+        <v>14.0038530563925</v>
       </c>
       <c r="R2">
-        <v>15.06721601943</v>
+        <v>56.01541222557</v>
       </c>
       <c r="S2">
-        <v>0.000382314825631302</v>
+        <v>0.001649281547162875</v>
       </c>
       <c r="T2">
-        <v>0.0002052926431421012</v>
+        <v>0.0008824526082175343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H3">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I3">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J3">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>247.9688604802126</v>
+        <v>92.33123780452502</v>
       </c>
       <c r="R3">
-        <v>1487.813162881275</v>
+        <v>553.9874268271501</v>
       </c>
       <c r="S3">
-        <v>0.02516780048397329</v>
+        <v>0.01087416485480739</v>
       </c>
       <c r="T3">
-        <v>0.02027163454188409</v>
+        <v>0.008727377525219387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H4">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I4">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J4">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>191.3731144131425</v>
+        <v>42.83507732185667</v>
       </c>
       <c r="R4">
-        <v>1148.238686478855</v>
+        <v>257.01046393114</v>
       </c>
       <c r="S4">
-        <v>0.0194235693635851</v>
+        <v>0.005044833183677548</v>
       </c>
       <c r="T4">
-        <v>0.01564489117307925</v>
+        <v>0.004048877714617678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H5">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I5">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J5">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>337.1274825613988</v>
+        <v>137.8155368505675</v>
       </c>
       <c r="R5">
-        <v>1348.509930245595</v>
+        <v>551.26214740227</v>
       </c>
       <c r="S5">
-        <v>0.03421702709903986</v>
+        <v>0.01623100591849109</v>
       </c>
       <c r="T5">
-        <v>0.01837361112540561</v>
+        <v>0.008684444163827304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H6">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I6">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J6">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>10.606871056415</v>
+        <v>13.960341467445</v>
       </c>
       <c r="R6">
-        <v>63.64122633849001</v>
+        <v>83.76204880467</v>
       </c>
       <c r="S6">
-        <v>0.001076552975200634</v>
+        <v>0.001644157038897195</v>
       </c>
       <c r="T6">
-        <v>0.000867119416817625</v>
+        <v>0.001319566089055471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.338267500000001</v>
+        <v>3.104755</v>
       </c>
       <c r="H7">
-        <v>16.676535</v>
+        <v>6.20951</v>
       </c>
       <c r="I7">
-        <v>0.1000493927533855</v>
+        <v>0.04344097476591214</v>
       </c>
       <c r="J7">
-        <v>0.07129624440355156</v>
+        <v>0.03008137037548785</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>194.90585769043</v>
+        <v>67.90609296246498</v>
       </c>
       <c r="R7">
-        <v>1169.43514614258</v>
+        <v>407.4365577747899</v>
       </c>
       <c r="S7">
-        <v>0.01978212800595529</v>
+        <v>0.007997532222876047</v>
       </c>
       <c r="T7">
-        <v>0.01593369550322289</v>
+        <v>0.006418652274550476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
         <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J8">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>28.66281841161799</v>
+        <v>286.1817284034871</v>
       </c>
       <c r="R8">
-        <v>171.976910469708</v>
+        <v>1717.090370420922</v>
       </c>
       <c r="S8">
-        <v>0.002909155987146711</v>
+        <v>0.03370459843375692</v>
       </c>
       <c r="T8">
-        <v>0.002343206234264534</v>
+        <v>0.02705060653345457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
         <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J9">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
-        <v>1886.87449904871</v>
+        <v>1886.874499048711</v>
       </c>
       <c r="R9">
         <v>16981.87049143839</v>
       </c>
       <c r="S9">
-        <v>0.1915098566747032</v>
+        <v>0.2222236466322151</v>
       </c>
       <c r="T9">
-        <v>0.2313800422180531</v>
+        <v>0.267528084007235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
         <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J10">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>1456.219336131137</v>
+        <v>875.3745426277605</v>
       </c>
       <c r="R10">
-        <v>13105.97402518024</v>
+        <v>7878.370883649844</v>
       </c>
       <c r="S10">
-        <v>0.1478001618496654</v>
+        <v>0.1030958461359366</v>
       </c>
       <c r="T10">
-        <v>0.1785704834331272</v>
+        <v>0.1241138582857433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
         <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J11">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>2565.311017446697</v>
+        <v>2816.388345259457</v>
       </c>
       <c r="R11">
-        <v>15391.86610468018</v>
+        <v>16898.33007155675</v>
       </c>
       <c r="S11">
-        <v>0.2603683210117788</v>
+        <v>0.3316956632418135</v>
       </c>
       <c r="T11">
-        <v>0.2097160398738777</v>
+        <v>0.2662120094040654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
         <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J12">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>80.71107990047155</v>
+        <v>285.292528718198</v>
       </c>
       <c r="R12">
-        <v>726.3997191042439</v>
+        <v>2567.632758463782</v>
       </c>
       <c r="S12">
-        <v>0.00819183647433501</v>
+        <v>0.03359987435340671</v>
       </c>
       <c r="T12">
-        <v>0.009897284151251688</v>
+        <v>0.04044983576175209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.44854866666666</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
         <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7613078814254429</v>
+        <v>0.8877566189803754</v>
       </c>
       <c r="J13">
-        <v>0.8137739463484414</v>
+        <v>0.9221110645908451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>1483.10111148265</v>
+        <v>1387.724005305459</v>
       </c>
       <c r="R13">
-        <v>13347.91000334385</v>
+        <v>12489.51604774913</v>
       </c>
       <c r="S13">
-        <v>0.1505285494278139</v>
+        <v>0.1634369901832466</v>
       </c>
       <c r="T13">
-        <v>0.1818668904378671</v>
+        <v>0.1967566705985948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H14">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I14">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J14">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>3.515260674928499</v>
+        <v>22.02653580572025</v>
       </c>
       <c r="R14">
-        <v>14.061042699714</v>
+        <v>88.10614322288102</v>
       </c>
       <c r="S14">
-        <v>0.0003567842314733612</v>
+        <v>0.002594140263112352</v>
       </c>
       <c r="T14">
-        <v>0.0001915834097975211</v>
+        <v>0.001388001851596261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H15">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I15">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J15">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>231.4097528644575</v>
+        <v>145.2269819811825</v>
       </c>
       <c r="R15">
-        <v>1388.458517186745</v>
+        <v>871.3618918870951</v>
       </c>
       <c r="S15">
-        <v>0.02348712043463612</v>
+        <v>0.01710387709491018</v>
       </c>
       <c r="T15">
-        <v>0.01891791546088237</v>
+        <v>0.01372721441557342</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H16">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I16">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J16">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>178.5934130014715</v>
+        <v>67.37491178829367</v>
       </c>
       <c r="R16">
-        <v>1071.560478008829</v>
+        <v>404.249470729762</v>
       </c>
       <c r="S16">
-        <v>0.01812648321030435</v>
+        <v>0.007934973203923678</v>
       </c>
       <c r="T16">
-        <v>0.0146001412957354</v>
+        <v>0.006368443712946473</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H17">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I17">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J17">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>314.6144530900702</v>
+        <v>216.7688310352478</v>
       </c>
       <c r="R17">
-        <v>1258.457812360281</v>
+        <v>867.075324140991</v>
       </c>
       <c r="S17">
-        <v>0.03193204892505894</v>
+        <v>0.02552960471570381</v>
       </c>
       <c r="T17">
-        <v>0.01714664011248722</v>
+        <v>0.01365968491364602</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H18">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I18">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J18">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>9.898555024517</v>
+        <v>21.9580968148185</v>
       </c>
       <c r="R18">
-        <v>59.391330147102</v>
+        <v>131.748580888911</v>
       </c>
       <c r="S18">
-        <v>0.00100466186542223</v>
+        <v>0.002586079969681239</v>
       </c>
       <c r="T18">
-        <v>0.0008092140664805426</v>
+        <v>0.002075533754285341</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.781446499999999</v>
+        <v>4.8834415</v>
       </c>
       <c r="H19">
-        <v>15.562893</v>
+        <v>9.766883</v>
       </c>
       <c r="I19">
-        <v>0.09336819633910241</v>
+        <v>0.06832792248415998</v>
       </c>
       <c r="J19">
-        <v>0.06653515391262763</v>
+        <v>0.04731471966983803</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>181.890243285514</v>
+        <v>106.8088890993845</v>
       </c>
       <c r="R19">
-        <v>1091.341459713084</v>
+        <v>640.8533345963069</v>
       </c>
       <c r="S19">
-        <v>0.01846109767220742</v>
+        <v>0.01257924723682871</v>
       </c>
       <c r="T19">
-        <v>0.01486965956724457</v>
+        <v>0.01009584102179051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H20">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I20">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J20">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>1.695433422207</v>
+        <v>0.1529569956075</v>
       </c>
       <c r="R20">
-        <v>10.172600533242</v>
+        <v>0.9177419736450002</v>
       </c>
       <c r="S20">
-        <v>0.0001720793894093442</v>
+        <v>1.801426716983198E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001386029143276995</v>
+        <v>1.445787446948485E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H21">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I21">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J21">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>111.610450977165</v>
+        <v>1.008487355475</v>
       </c>
       <c r="R21">
-        <v>1004.494058794485</v>
+        <v>9.076386199275001</v>
       </c>
       <c r="S21">
-        <v>0.01132799318704666</v>
+        <v>0.0001187729962056941</v>
       </c>
       <c r="T21">
-        <v>0.01368635321113942</v>
+        <v>0.0001429870879551196</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H22">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I22">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J22">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>86.13678170392635</v>
+        <v>0.4678658585877778</v>
       </c>
       <c r="R22">
-        <v>775.2310353353372</v>
+        <v>4.21079272729</v>
       </c>
       <c r="S22">
-        <v>0.00874252247664368</v>
+        <v>5.510215824237718E-05</v>
       </c>
       <c r="T22">
-        <v>0.01056261674914247</v>
+        <v>6.633576148466296E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H23">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I23">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J23">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>151.7406269989155</v>
+        <v>1.5052893214325</v>
       </c>
       <c r="R23">
-        <v>910.4437619934931</v>
+        <v>9.031735928595001</v>
       </c>
       <c r="S23">
-        <v>0.01540103792962529</v>
+        <v>0.0001772830585255724</v>
       </c>
       <c r="T23">
-        <v>0.01240490652625243</v>
+        <v>0.0001422836789065435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H24">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I24">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J24">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>4.774138413067334</v>
+        <v>0.152481740555</v>
       </c>
       <c r="R24">
-        <v>42.967245717606</v>
+        <v>1.372335664995</v>
       </c>
       <c r="S24">
-        <v>0.0004845550478808593</v>
+        <v>1.795829476101508E-05</v>
       </c>
       <c r="T24">
-        <v>0.0005854339269131393</v>
+        <v>2.161942827534836E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.753043</v>
+        <v>0.03391166666666667</v>
       </c>
       <c r="H25">
-        <v>11.259129</v>
+        <v>0.101735</v>
       </c>
       <c r="I25">
-        <v>0.04503209727048744</v>
+        <v>0.0004744837695524093</v>
       </c>
       <c r="J25">
-        <v>0.04813551573843818</v>
+        <v>0.0004928453638290714</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>87.72686470709468</v>
+        <v>0.7417038668683331</v>
       </c>
       <c r="R25">
-        <v>789.5417823638521</v>
+        <v>6.675334801815</v>
       </c>
       <c r="S25">
-        <v>0.008903909239881604</v>
+        <v>8.735299464791851E-05</v>
       </c>
       <c r="T25">
-        <v>0.01075760241066303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.060614</v>
-      </c>
-      <c r="I26">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J26">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.451749</v>
-      </c>
-      <c r="N26">
-        <v>0.9034979999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.003821260830374857</v>
-      </c>
-      <c r="P26">
-        <v>0.00287943137621811</v>
-      </c>
-      <c r="Q26">
-        <v>0.009127437961999999</v>
-      </c>
-      <c r="R26">
-        <v>0.05476462777199999</v>
-      </c>
-      <c r="S26">
-        <v>9.263967141381882E-07</v>
-      </c>
-      <c r="T26">
-        <v>7.461746862531887E-07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.060614</v>
-      </c>
-      <c r="I27">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J27">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>29.738655</v>
-      </c>
-      <c r="N27">
-        <v>89.21596500000001</v>
-      </c>
-      <c r="O27">
-        <v>0.2515537555136401</v>
-      </c>
-      <c r="P27">
-        <v>0.2843296264967679</v>
-      </c>
-      <c r="Q27">
-        <v>0.6008596113900001</v>
-      </c>
-      <c r="R27">
-        <v>5.407736502510001</v>
-      </c>
-      <c r="S27">
-        <v>6.098473328084668E-05</v>
-      </c>
-      <c r="T27">
-        <v>7.368106480883243E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.060614</v>
-      </c>
-      <c r="I28">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J28">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>22.95118433333333</v>
-      </c>
-      <c r="N28">
-        <v>68.85355300000001</v>
-      </c>
-      <c r="O28">
-        <v>0.194139802641909</v>
-      </c>
-      <c r="P28">
-        <v>0.2194349969477482</v>
-      </c>
-      <c r="Q28">
-        <v>0.4637210290602222</v>
-      </c>
-      <c r="R28">
-        <v>4.173489261542001</v>
-      </c>
-      <c r="S28">
-        <v>4.706574171050708E-05</v>
-      </c>
-      <c r="T28">
-        <v>5.686429666384686E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.060614</v>
-      </c>
-      <c r="I29">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J29">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>40.4313585</v>
-      </c>
-      <c r="N29">
-        <v>80.862717</v>
-      </c>
-      <c r="O29">
-        <v>0.3420013471084464</v>
-      </c>
-      <c r="P29">
-        <v>0.2577079799800836</v>
-      </c>
-      <c r="Q29">
-        <v>0.816902121373</v>
-      </c>
-      <c r="R29">
-        <v>4.901412728238</v>
-      </c>
-      <c r="S29">
-        <v>8.291214294341129E-05</v>
-      </c>
-      <c r="T29">
-        <v>6.678234206058607E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.060614</v>
-      </c>
-      <c r="I30">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J30">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.272071333333333</v>
-      </c>
-      <c r="N30">
-        <v>3.816214</v>
-      </c>
-      <c r="O30">
-        <v>0.01076021498555478</v>
-      </c>
-      <c r="P30">
-        <v>0.01216220326991628</v>
-      </c>
-      <c r="Q30">
-        <v>0.02570177726622222</v>
-      </c>
-      <c r="R30">
-        <v>0.231315995396</v>
-      </c>
-      <c r="S30">
-        <v>2.60862271604228E-06</v>
-      </c>
-      <c r="T30">
-        <v>3.151708453283822E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.02020466666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.060614</v>
-      </c>
-      <c r="I31">
-        <v>0.0002424322115816707</v>
-      </c>
-      <c r="J31">
-        <v>0.0002591395969412635</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>23.37486266666667</v>
-      </c>
-      <c r="N31">
-        <v>70.124588</v>
-      </c>
-      <c r="O31">
-        <v>0.1977236189200749</v>
-      </c>
-      <c r="P31">
-        <v>0.223485761929266</v>
-      </c>
-      <c r="Q31">
-        <v>0.4722813085591112</v>
-      </c>
-      <c r="R31">
-        <v>4.250531777032</v>
-      </c>
-      <c r="S31">
-        <v>4.793457421672524E-05</v>
-      </c>
-      <c r="T31">
-        <v>5.791401026846117E-05</v>
+        <v>0.0001051615327379121</v>
       </c>
     </row>
   </sheetData>
